--- a/STIK KEL.csv.xlsx
+++ b/STIK KEL.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f59b2875d816964/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{715DB602-DFAA-4CA2-823D-3F445F93A510}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9B20F8B3-3254-4409-A92E-678C7E54E3FF}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{76B2BE9E-CD9B-4EA2-B259-7E6AE1E48750}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Source</t>
   </si>
@@ -55,6 +55,60 @@
   </si>
   <si>
     <t>Anugerah Tehoru</t>
+  </si>
+  <si>
+    <t>Teh chamomile</t>
+  </si>
+  <si>
+    <t>Teh jahe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teh melati </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teh peppermint </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teh herbal </t>
+  </si>
+  <si>
+    <t>Teh kembang sepatu</t>
+  </si>
+  <si>
+    <t>Teh merah</t>
+  </si>
+  <si>
+    <t>Teh hibiscus</t>
+  </si>
+  <si>
+    <t>Teh Pu-erh</t>
+  </si>
+  <si>
+    <t>Artha Cipta</t>
+  </si>
+  <si>
+    <t>Bahana</t>
+  </si>
+  <si>
+    <t>Citalahab</t>
+  </si>
+  <si>
+    <t>Baru Ulis</t>
+  </si>
+  <si>
+    <t>Berdikari</t>
+  </si>
+  <si>
+    <t>Bodjong</t>
+  </si>
+  <si>
+    <t>Bintang</t>
+  </si>
+  <si>
+    <t>Mulia</t>
+  </si>
+  <si>
+    <t>Bolindo</t>
   </si>
 </sst>
 </file>
@@ -415,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191FE939-2ECE-47AD-927C-5110614E0A96}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.90625" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -467,6 +521,78 @@
         <v>9</v>
       </c>
     </row>
+    <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/STIK KEL.csv.xlsx
+++ b/STIK KEL.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f59b2875d816964/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{9B20F8B3-3254-4409-A92E-678C7E54E3FF}"/>
+  <xr:revisionPtr revIDLastSave="58" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{319522DE-4A68-42C5-9EB6-F83080777543}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{76B2BE9E-CD9B-4EA2-B259-7E6AE1E48750}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Source</t>
   </si>
@@ -45,18 +45,6 @@
     <t xml:space="preserve">Teh purih </t>
   </si>
   <si>
-    <t>Agro Tea</t>
-  </si>
-  <si>
-    <t>Alex Jaminda</t>
-  </si>
-  <si>
-    <t>Amarta Mustika</t>
-  </si>
-  <si>
-    <t>Anugerah Tehoru</t>
-  </si>
-  <si>
     <t>Teh chamomile</t>
   </si>
   <si>
@@ -82,33 +70,6 @@
   </si>
   <si>
     <t>Teh Pu-erh</t>
-  </si>
-  <si>
-    <t>Artha Cipta</t>
-  </si>
-  <si>
-    <t>Bahana</t>
-  </si>
-  <si>
-    <t>Citalahab</t>
-  </si>
-  <si>
-    <t>Baru Ulis</t>
-  </si>
-  <si>
-    <t>Berdikari</t>
-  </si>
-  <si>
-    <t>Bodjong</t>
-  </si>
-  <si>
-    <t>Bintang</t>
-  </si>
-  <si>
-    <t>Mulia</t>
-  </si>
-  <si>
-    <t>Bolindo</t>
   </si>
 </sst>
 </file>
@@ -471,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191FE939-2ECE-47AD-927C-5110614E0A96}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -493,104 +454,104 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
+      <c r="B2" s="1">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
+      <c r="B3" s="1">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
+      <c r="B4" s="1">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
+      <c r="B5" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="1">
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="1">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="1">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="1">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="1">
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="1">
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="B14" s="1">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/STIK KEL.csv.xlsx
+++ b/STIK KEL.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f59b2875d816964/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{319522DE-4A68-42C5-9EB6-F83080777543}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{167398FC-3F4D-47E8-8F98-814E597A7F53}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{76B2BE9E-CD9B-4EA2-B259-7E6AE1E48750}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Source</t>
   </si>
@@ -70,6 +70,27 @@
   </si>
   <si>
     <t>Teh Pu-erh</t>
+  </si>
+  <si>
+    <t>Teh kunyit</t>
+  </si>
+  <si>
+    <t>Teh Kombucha</t>
+  </si>
+  <si>
+    <t>Teh barley</t>
+  </si>
+  <si>
+    <t>Teh dandelion</t>
+  </si>
+  <si>
+    <t>Teh yerba mate</t>
+  </si>
+  <si>
+    <t>Teh krisan</t>
+  </si>
+  <si>
+    <t>Teh moringa</t>
   </si>
 </sst>
 </file>
@@ -430,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191FE939-2ECE-47AD-927C-5110614E0A96}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,6 +575,62 @@
         <v>36</v>
       </c>
     </row>
+    <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/STIK KEL.csv.xlsx
+++ b/STIK KEL.csv.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8f59b2875d816964/Dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="73" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{167398FC-3F4D-47E8-8F98-814E597A7F53}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{7689CA7E-5C08-425E-B517-6B5A645F4C3E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{91631623-8C08-42C9-BD94-7004A6E03B85}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="2160" windowWidth="14400" windowHeight="7360" xr2:uid="{76B2BE9E-CD9B-4EA2-B259-7E6AE1E48750}"/>
   </bookViews>
@@ -25,72 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Source</t>
   </si>
   <si>
     <t xml:space="preserve">Target </t>
-  </si>
-  <si>
-    <t>Teh oolong</t>
-  </si>
-  <si>
-    <t>Teh hitam</t>
-  </si>
-  <si>
-    <t>Teh hijau</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teh purih </t>
-  </si>
-  <si>
-    <t>Teh chamomile</t>
-  </si>
-  <si>
-    <t>Teh jahe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teh melati </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teh peppermint </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Teh herbal </t>
-  </si>
-  <si>
-    <t>Teh kembang sepatu</t>
-  </si>
-  <si>
-    <t>Teh merah</t>
-  </si>
-  <si>
-    <t>Teh hibiscus</t>
-  </si>
-  <si>
-    <t>Teh Pu-erh</t>
-  </si>
-  <si>
-    <t>Teh kunyit</t>
-  </si>
-  <si>
-    <t>Teh Kombucha</t>
-  </si>
-  <si>
-    <t>Teh barley</t>
-  </si>
-  <si>
-    <t>Teh dandelion</t>
-  </si>
-  <si>
-    <t>Teh yerba mate</t>
-  </si>
-  <si>
-    <t>Teh krisan</t>
-  </si>
-  <si>
-    <t>Teh moringa</t>
   </si>
 </sst>
 </file>
@@ -453,8 +393,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191FE939-2ECE-47AD-927C-5110614E0A96}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -472,160 +412,160 @@
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
+      <c r="A2" s="1">
+        <v>3</v>
       </c>
       <c r="B2" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
+      <c r="A3" s="1">
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
+      <c r="A4" s="1">
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
+      <c r="A5" s="1">
+        <v>9</v>
       </c>
       <c r="B5" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
+      <c r="A6" s="1">
+        <v>2</v>
       </c>
       <c r="B6" s="1">
         <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
+      <c r="A7" s="1">
+        <v>1</v>
       </c>
       <c r="B7" s="1">
         <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>8</v>
+      <c r="A8" s="1">
+        <v>9</v>
       </c>
       <c r="B8" s="1">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>9</v>
+      <c r="A9" s="1">
+        <v>5</v>
       </c>
       <c r="B9" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
+      <c r="A10" s="1">
+        <v>6</v>
       </c>
       <c r="B10" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>11</v>
+      <c r="A11" s="1">
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
+      <c r="A12" s="1">
+        <v>9</v>
       </c>
       <c r="B12" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
-        <v>13</v>
+      <c r="A13" s="1">
+        <v>8</v>
       </c>
       <c r="B13" s="1">
         <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
+      <c r="A14" s="1">
+        <v>2</v>
       </c>
       <c r="B14" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
+      <c r="A15" s="1">
+        <v>2</v>
       </c>
       <c r="B15" s="1">
         <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>16</v>
+      <c r="A16" s="1">
+        <v>4</v>
       </c>
       <c r="B16" s="1">
         <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
+      <c r="A17" s="1">
+        <v>4</v>
       </c>
       <c r="B17" s="1">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
+      <c r="A18" s="1">
+        <v>7</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
+      <c r="A19" s="1">
+        <v>8</v>
       </c>
       <c r="B19" s="1">
         <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
+      <c r="A20" s="1">
+        <v>6</v>
       </c>
       <c r="B20" s="1">
         <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
+      <c r="A21" s="1">
+        <v>4</v>
       </c>
       <c r="B21" s="1">
         <v>23</v>
